--- a/log/tabelas resumo.xlsx
+++ b/log/tabelas resumo.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Classicos" sheetId="1" r:id="rId1"/>
+    <sheet name="Correcao" sheetId="3" r:id="rId2"/>
+    <sheet name="Específicos" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="29">
   <si>
     <t>Estratégia</t>
   </si>
@@ -63,9 +65,6 @@
     <t>A-n80-k10</t>
   </si>
   <si>
-    <t>Fitness Ótimo</t>
-  </si>
-  <si>
     <t>2 Pontos</t>
   </si>
   <si>
@@ -79,13 +78,54 @@
   </si>
   <si>
     <t>Geração Melhor</t>
+  </si>
+  <si>
+    <t>Variação</t>
+  </si>
+  <si>
+    <t>Fitness Referência</t>
+  </si>
+  <si>
+    <t>REFAZER TABELA DEPOIS DOS ESPECIFICOS!!!!</t>
+  </si>
+  <si>
+    <t>PMX</t>
+  </si>
+  <si>
+    <t>Melhor Rodada 1</t>
+  </si>
+  <si>
+    <t>Melhor Rodada 2</t>
+  </si>
+  <si>
+    <t>Melhor Rodada 3</t>
+  </si>
+  <si>
+    <t>Pior Fitness</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>SRM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -118,7 +158,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,8 +171,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -149,47 +195,211 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="15">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+  <cellStyles count="65">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -518,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N4" sqref="A4:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -529,7 +739,7 @@
     <col min="12" max="12" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="30">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -537,10 +747,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -567,16 +777,19 @@
         <v>8</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>1</v>
       </c>
@@ -597,7 +810,7 @@
         <v>500</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -611,7 +824,7 @@
         <v>100</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L2">
         <f>F2+H2+I2+J2</f>
@@ -626,8 +839,12 @@
       <c r="O2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="Q2" s="3">
+        <f t="shared" ref="Q2:Q3" si="0">(N2-C2)/C2</f>
+        <v>183.07044553706504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>2</v>
       </c>
@@ -644,28 +861,28 @@
         <v>10000</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F6" si="0">E3/2</f>
+        <f t="shared" ref="F3:F6" si="1">E3/2</f>
         <v>5000</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I6" si="1">E3*0.4 -H3</f>
+        <f t="shared" ref="I3:I6" si="2">E3*0.4 -H3</f>
         <v>4000</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J6" si="2">E3*0.1</f>
+        <f t="shared" ref="J3:J6" si="3">E3*0.1</f>
         <v>1000</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L6" si="3">F3+H3+I3+J3</f>
+        <f t="shared" ref="L3:L6" si="4">F3+H3+I3+J3</f>
         <v>10000</v>
       </c>
       <c r="M3">
@@ -677,8 +894,12 @@
       <c r="O3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="Q3" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8555046898638425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>3</v>
       </c>
@@ -695,28 +916,28 @@
         <v>1000</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>400</v>
       </c>
       <c r="J4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="M4">
@@ -728,8 +949,12 @@
       <c r="O4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="Q4" s="3">
+        <f>(N4-C4)/C4</f>
+        <v>0.88946777251184839</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>4</v>
       </c>
@@ -746,28 +971,28 @@
         <v>1000</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>399</v>
       </c>
       <c r="J5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="M5">
@@ -779,8 +1004,12 @@
       <c r="O5">
         <v>94</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="Q5" s="3">
+        <f t="shared" ref="Q5:Q6" si="5">(N5-C5)/C5</f>
+        <v>1.2648131677018635</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>5</v>
       </c>
@@ -797,28 +1026,28 @@
         <v>10000</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4000</v>
       </c>
       <c r="J6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10000</v>
       </c>
       <c r="M6">
@@ -829,6 +1058,1040 @@
       </c>
       <c r="O6">
         <v>1</v>
+      </c>
+      <c r="Q6" s="3">
+        <f t="shared" si="5"/>
+        <v>410.1134484126984</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="12" max="12" width="13.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="30">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>661</v>
+      </c>
+      <c r="D2">
+        <v>10000</v>
+      </c>
+      <c r="E2">
+        <v>1000</v>
+      </c>
+      <c r="F2">
+        <f>E2/2</f>
+        <v>500</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>E2*0.4 -H2</f>
+        <v>400</v>
+      </c>
+      <c r="J2">
+        <f>E2*0.1</f>
+        <v>100</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2">
+        <f>F2+H2+I2+J2</f>
+        <v>1000</v>
+      </c>
+      <c r="Q2" s="3">
+        <f t="shared" ref="Q2:Q3" si="0">(N2-C2)/C2</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>661</v>
+      </c>
+      <c r="D3">
+        <v>10000</v>
+      </c>
+      <c r="E3">
+        <v>10000</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F6" si="1">E3/2</f>
+        <v>5000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I6" si="2">E3*0.4 -H3</f>
+        <v>4000</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J6" si="3">E3*0.1</f>
+        <v>1000</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L6" si="4">F3+H3+I3+J3</f>
+        <v>10000</v>
+      </c>
+      <c r="Q3" s="3">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>211</v>
+      </c>
+      <c r="D4">
+        <v>10000</v>
+      </c>
+      <c r="E4">
+        <v>1000</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="Q4" s="3">
+        <f>(N4-C4)/C4</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>805</v>
+      </c>
+      <c r="D5">
+        <v>10000</v>
+      </c>
+      <c r="E5">
+        <v>1000</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>399</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" ref="Q5:Q6" si="5">(N5-C5)/C5</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>1764</v>
+      </c>
+      <c r="D6">
+        <v>10000</v>
+      </c>
+      <c r="E6">
+        <v>10000</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="Q6" s="3">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="30">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>661</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="5">
+        <f>E2* 0.3</f>
+        <v>300</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5">
+        <f>E2*0.3 -H2</f>
+        <v>299</v>
+      </c>
+      <c r="J2" s="5">
+        <f>E2*0.4</f>
+        <v>400</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="5">
+        <f>F2+H2+I2+J2</f>
+        <v>1000</v>
+      </c>
+      <c r="N2" s="6">
+        <v>957.26949999999999</v>
+      </c>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7">
+        <v>891.56219999999996</v>
+      </c>
+      <c r="Q2" s="6">
+        <f>MIN(N2:P2)</f>
+        <v>891.56219999999996</v>
+      </c>
+      <c r="R2" s="7">
+        <f>MAX(N2:P2)</f>
+        <v>957.26949999999999</v>
+      </c>
+      <c r="S2" s="8">
+        <f>AVERAGE(N2:P2)</f>
+        <v>924.41584999999998</v>
+      </c>
+      <c r="U2" s="3">
+        <f>(S2-C2)/C2</f>
+        <v>0.39851111951588497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>661</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F5" si="0">E3* 0.3</f>
+        <v>300</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" ref="I3:I6" si="1">E3*0.3 -H3</f>
+        <v>300</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" ref="J3:J5" si="2">E3*0.4</f>
+        <v>400</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" ref="L3:L6" si="3">F3+H3+I3+J3</f>
+        <v>1000</v>
+      </c>
+      <c r="N3" s="9">
+        <v>1224.1606999999999</v>
+      </c>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10">
+        <v>1265.5310999999999</v>
+      </c>
+      <c r="Q3" s="9">
+        <f t="shared" ref="Q3:Q6" si="4">MIN(N3:P3)</f>
+        <v>1224.1606999999999</v>
+      </c>
+      <c r="R3" s="10">
+        <f t="shared" ref="R3:R6" si="5">MAX(N3:P3)</f>
+        <v>1265.5310999999999</v>
+      </c>
+      <c r="S3" s="11">
+        <f t="shared" ref="S3:S6" si="6">AVERAGE(N3:P3)</f>
+        <v>1244.8458999999998</v>
+      </c>
+      <c r="U3" s="3">
+        <f t="shared" ref="U3:U8" si="7">(S3-C3)/C3</f>
+        <v>0.88327670196671682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>661</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4" s="13">
+        <v>100</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="N4" s="9">
+        <v>903.66309999999999</v>
+      </c>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10">
+        <v>921.55870000000004</v>
+      </c>
+      <c r="Q4" s="9">
+        <f t="shared" si="4"/>
+        <v>903.66309999999999</v>
+      </c>
+      <c r="R4" s="10">
+        <f t="shared" si="5"/>
+        <v>921.55870000000004</v>
+      </c>
+      <c r="S4" s="11">
+        <f t="shared" si="6"/>
+        <v>912.61090000000002</v>
+      </c>
+      <c r="U4" s="3">
+        <f t="shared" si="7"/>
+        <v>0.38065189107413011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>661</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5" s="13">
+        <v>10000</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="1"/>
+        <v>2999</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="3"/>
+        <v>10000</v>
+      </c>
+      <c r="N5" s="9">
+        <v>883.24</v>
+      </c>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10">
+        <v>923.11810000000003</v>
+      </c>
+      <c r="Q5" s="9">
+        <f t="shared" si="4"/>
+        <v>883.24</v>
+      </c>
+      <c r="R5" s="10">
+        <f t="shared" si="5"/>
+        <v>923.11810000000003</v>
+      </c>
+      <c r="S5" s="11">
+        <f t="shared" si="6"/>
+        <v>903.17904999999996</v>
+      </c>
+      <c r="U5" s="3">
+        <f t="shared" si="7"/>
+        <v>0.36638282904689856</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>661</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="5">
+        <f>E6* 0.5</f>
+        <v>500</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="1"/>
+        <v>299</v>
+      </c>
+      <c r="J6" s="14">
+        <f>E6*0.2</f>
+        <v>200</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="N6" s="9">
+        <v>944.18290000000002</v>
+      </c>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10">
+        <v>999.06479999999999</v>
+      </c>
+      <c r="Q6" s="9">
+        <f t="shared" si="4"/>
+        <v>944.18290000000002</v>
+      </c>
+      <c r="R6" s="10">
+        <f t="shared" si="5"/>
+        <v>999.06479999999999</v>
+      </c>
+      <c r="S6" s="11">
+        <f t="shared" si="6"/>
+        <v>971.62384999999995</v>
+      </c>
+      <c r="U6" s="3">
+        <f t="shared" si="7"/>
+        <v>0.46993018154311639</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>661</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="5">
+        <f>E7* 0.3</f>
+        <v>300</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <f>E7*0.3 -H7</f>
+        <v>299</v>
+      </c>
+      <c r="J7" s="5">
+        <f>E7*0.4</f>
+        <v>400</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" ref="L7" si="8">F7+H7+I7+J7</f>
+        <v>1000</v>
+      </c>
+      <c r="N7" s="9"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="9">
+        <f t="shared" ref="Q7:Q8" si="9">MIN(N7:P7)</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="10">
+        <f t="shared" ref="R7:R8" si="10">MAX(N7:P7)</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="11" t="e">
+        <f t="shared" ref="S7:S8" si="11">AVERAGE(N7:P7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U7" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>661</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="5">
+        <f>E8* 0.3</f>
+        <v>300</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
+        <f>E8*0.1 -H8</f>
+        <v>99</v>
+      </c>
+      <c r="J8" s="5">
+        <f>E8*0.6</f>
+        <v>600</v>
+      </c>
+      <c r="K8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" ref="L8" si="12">F8+H8+I8+J8</f>
+        <v>1000</v>
+      </c>
+      <c r="N8" s="15">
+        <v>877.87</v>
+      </c>
+      <c r="P8" s="16">
+        <v>873.77239999999995</v>
+      </c>
+      <c r="Q8" s="15">
+        <f t="shared" si="9"/>
+        <v>873.77239999999995</v>
+      </c>
+      <c r="R8" s="17">
+        <f t="shared" si="10"/>
+        <v>877.87</v>
+      </c>
+      <c r="S8" s="16">
+        <f t="shared" si="11"/>
+        <v>875.82119999999998</v>
+      </c>
+      <c r="U8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.32499425113464442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>661</v>
+      </c>
+      <c r="D17">
+        <v>10000</v>
+      </c>
+      <c r="E17">
+        <v>10000</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:F20" si="13">E17/2</f>
+        <v>5000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ref="I17:I20" si="14">E17*0.4 -H17</f>
+        <v>4000</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17:J20" si="15">E17*0.1</f>
+        <v>1000</v>
+      </c>
+      <c r="K17" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="L17:L20" si="16">F17+H17+I17+J17</f>
+        <v>10000</v>
+      </c>
+      <c r="U17" s="3">
+        <f>(Q17-C17)/C17</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>211</v>
+      </c>
+      <c r="D18">
+        <v>10000</v>
+      </c>
+      <c r="E18">
+        <v>1000</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="13"/>
+        <v>500</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="14"/>
+        <v>400</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="K18" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="16"/>
+        <v>1000</v>
+      </c>
+      <c r="U18" s="3">
+        <f>(Q18-C18)/C18</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>805</v>
+      </c>
+      <c r="D19">
+        <v>10000</v>
+      </c>
+      <c r="E19">
+        <v>1000</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="13"/>
+        <v>500</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="14"/>
+        <v>399</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="K19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="16"/>
+        <v>1000</v>
+      </c>
+      <c r="U19" s="3">
+        <f t="shared" ref="U19:U20" si="17">(Q19-C19)/C19</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>1764</v>
+      </c>
+      <c r="D20">
+        <v>10000</v>
+      </c>
+      <c r="E20">
+        <v>10000</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="13"/>
+        <v>5000</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="14"/>
+        <v>4000</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="15"/>
+        <v>1000</v>
+      </c>
+      <c r="K20" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="16"/>
+        <v>10000</v>
+      </c>
+      <c r="U20" s="3">
+        <f t="shared" si="17"/>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/log/tabelas resumo.xlsx
+++ b/log/tabelas resumo.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="34">
   <si>
     <t>Estratégia</t>
   </si>
@@ -109,14 +109,30 @@
   <si>
     <t>SRM</t>
   </si>
+  <si>
+    <t>Em 100 R1</t>
+  </si>
+  <si>
+    <t>Em 100 R2</t>
+  </si>
+  <si>
+    <t>Em 100 R3</t>
+  </si>
+  <si>
+    <t>% sobre Best</t>
+  </si>
+  <si>
+    <t>Média em 100</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -158,7 +174,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,8 +193,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -244,8 +266,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -311,8 +368,84 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -320,21 +453,50 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="141">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -367,6 +529,44 @@
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -398,6 +598,44 @@
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -1386,24 +1624,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.1640625" customWidth="1"/>
+    <col min="19" max="19" width="8" customWidth="1"/>
+    <col min="25" max="25" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="30">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="30">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>20</v>
@@ -1411,688 +1651,2459 @@
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="18" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>17</v>
+      <c r="M1" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="O1" s="14" t="s">
         <v>25</v>
       </c>
+      <c r="P1" s="16" t="s">
+        <v>9</v>
+      </c>
       <c r="Q1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="R1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="S1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="B2" s="28">
+        <v>1</v>
+      </c>
+      <c r="C2" s="28">
         <v>661</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="28">
         <v>50</v>
       </c>
-      <c r="E2" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="E2" s="29">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="30">
         <f>E2* 0.3</f>
         <v>300</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5">
+      <c r="H2" s="28">
+        <v>1</v>
+      </c>
+      <c r="I2" s="30">
         <f>E2*0.3 -H2</f>
         <v>299</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="30">
         <f>E2*0.4</f>
         <v>400</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="33">
         <f>F2+H2+I2+J2</f>
         <v>1000</v>
       </c>
+      <c r="M2" s="5">
+        <v>957.26949999999999</v>
+      </c>
       <c r="N2" s="6">
+        <v>891.56219999999996</v>
+      </c>
+      <c r="O2" s="7">
+        <v>817.95820000000003</v>
+      </c>
+      <c r="P2" s="5">
+        <f>MIN(M2:O2)</f>
+        <v>817.95820000000003</v>
+      </c>
+      <c r="Q2" s="6">
+        <f>MAX(M2:O2)</f>
         <v>957.26949999999999</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7">
-        <v>891.56219999999996</v>
-      </c>
-      <c r="Q2" s="6">
-        <f>MIN(N2:P2)</f>
-        <v>891.56219999999996</v>
-      </c>
       <c r="R2" s="7">
-        <f>MAX(N2:P2)</f>
-        <v>957.26949999999999</v>
-      </c>
-      <c r="S2" s="8">
-        <f>AVERAGE(N2:P2)</f>
-        <v>924.41584999999998</v>
-      </c>
-      <c r="U2" s="3">
-        <f>(S2-C2)/C2</f>
-        <v>0.39851111951588497</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3">
+        <f>AVERAGE(M2:O2)</f>
+        <v>888.92996666666659</v>
+      </c>
+      <c r="S2" s="15">
+        <f>(R2-C2)/C2</f>
+        <v>0.34482597075138666</v>
+      </c>
+      <c r="U2" s="5">
+        <v>1172.9893999999999</v>
+      </c>
+      <c r="V2" s="6">
+        <v>1123.8188</v>
+      </c>
+      <c r="W2" s="10">
+        <v>1128.1081999999999</v>
+      </c>
+      <c r="X2" s="17">
+        <f>AVERAGE(U2:W2)</f>
+        <v>1141.6387999999999</v>
+      </c>
+      <c r="Y2" s="15">
+        <f>(X2-C2)/C2</f>
+        <v>0.7271388804841149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="28">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
+      <c r="C3" s="28">
         <v>661</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="28">
         <v>50</v>
       </c>
-      <c r="E3" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="E3" s="29">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="30">
         <f t="shared" ref="F3:F5" si="0">E3* 0.3</f>
         <v>300</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="32">
         <v>0</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="30">
         <f t="shared" ref="I3:I6" si="1">E3*0.3 -H3</f>
         <v>300</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="30">
         <f t="shared" ref="J3:J5" si="2">E3*0.4</f>
         <v>400</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="33">
         <f t="shared" ref="L3:L6" si="3">F3+H3+I3+J3</f>
         <v>1000</v>
       </c>
+      <c r="M3" s="8">
+        <v>1224.1606999999999</v>
+      </c>
       <c r="N3" s="9">
-        <v>1224.1606999999999</v>
-      </c>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10">
         <v>1265.5310999999999</v>
       </c>
+      <c r="O3" s="10">
+        <v>1210.3493000000001</v>
+      </c>
+      <c r="P3" s="8">
+        <f t="shared" ref="P3:P6" si="4">MIN(M3:O3)</f>
+        <v>1210.3493000000001</v>
+      </c>
       <c r="Q3" s="9">
-        <f t="shared" ref="Q3:Q6" si="4">MIN(N3:P3)</f>
-        <v>1224.1606999999999</v>
+        <f t="shared" ref="Q3:Q6" si="5">MAX(M3:O3)</f>
+        <v>1265.5310999999999</v>
       </c>
       <c r="R3" s="10">
-        <f t="shared" ref="R3:R6" si="5">MAX(N3:P3)</f>
-        <v>1265.5310999999999</v>
-      </c>
-      <c r="S3" s="11">
-        <f t="shared" ref="S3:S6" si="6">AVERAGE(N3:P3)</f>
-        <v>1244.8458999999998</v>
-      </c>
-      <c r="U3" s="3">
-        <f t="shared" ref="U3:U8" si="7">(S3-C3)/C3</f>
-        <v>0.88327670196671682</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4">
+        <f t="shared" ref="R3:R6" si="6">AVERAGE(M3:O3)</f>
+        <v>1233.3470333333332</v>
+      </c>
+      <c r="S3" s="15">
+        <f>(R3-C3)/C3</f>
+        <v>0.86588053454362057</v>
+      </c>
+      <c r="U3" s="8">
+        <v>1350.7720999999999</v>
+      </c>
+      <c r="V3" s="9">
+        <v>1331.3112000000001</v>
+      </c>
+      <c r="W3" s="10">
+        <v>1316.4632999999999</v>
+      </c>
+      <c r="X3" s="17">
+        <f t="shared" ref="X3:X14" si="7">AVERAGE(U3:W3)</f>
+        <v>1332.8488666666667</v>
+      </c>
+      <c r="Y3" s="15">
+        <f t="shared" ref="Y3:Y14" si="8">(X3-C3)/C3</f>
+        <v>1.0164128088754414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="28">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
+      <c r="C4" s="28">
         <v>661</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="28">
         <v>50</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="34">
         <v>100</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="30">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="5">
+      <c r="H4" s="28">
+        <v>1</v>
+      </c>
+      <c r="I4" s="30">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="30">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="33">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
+      <c r="M4" s="8">
+        <v>903.66309999999999</v>
+      </c>
       <c r="N4" s="9">
-        <v>903.66309999999999</v>
-      </c>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10">
         <v>921.55870000000004</v>
       </c>
+      <c r="O4" s="10">
+        <v>843.21540000000005</v>
+      </c>
+      <c r="P4" s="8">
+        <f t="shared" si="4"/>
+        <v>843.21540000000005</v>
+      </c>
       <c r="Q4" s="9">
-        <f t="shared" si="4"/>
-        <v>903.66309999999999</v>
-      </c>
-      <c r="R4" s="10">
         <f t="shared" si="5"/>
         <v>921.55870000000004</v>
       </c>
-      <c r="S4" s="11">
+      <c r="R4" s="10">
         <f t="shared" si="6"/>
-        <v>912.61090000000002</v>
-      </c>
-      <c r="U4" s="3">
+        <v>889.47906666666677</v>
+      </c>
+      <c r="S4" s="15">
+        <f>(R4-C4)/C4</f>
+        <v>0.34565668179525988</v>
+      </c>
+      <c r="U4" s="8">
+        <v>1113.7618</v>
+      </c>
+      <c r="V4" s="9">
+        <v>1183.0148999999999</v>
+      </c>
+      <c r="W4" s="10">
+        <v>1127.0222000000001</v>
+      </c>
+      <c r="X4" s="17">
         <f t="shared" si="7"/>
-        <v>0.38065189107413011</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5">
+        <v>1141.2663</v>
+      </c>
+      <c r="Y4" s="15">
+        <f t="shared" si="8"/>
+        <v>0.72657534039334337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="28">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
+      <c r="C5" s="28">
         <v>661</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="28">
         <v>50</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="34">
         <v>10000</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="30">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5">
+      <c r="H5" s="28">
+        <v>1</v>
+      </c>
+      <c r="I5" s="30">
         <f t="shared" si="1"/>
         <v>2999</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="30">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="33">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
+      <c r="M5" s="8">
+        <v>883.24</v>
+      </c>
       <c r="N5" s="9">
-        <v>883.24</v>
-      </c>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10">
         <v>923.11810000000003</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="O5" s="10">
+        <v>963.38969999999995</v>
+      </c>
+      <c r="P5" s="8">
         <f t="shared" si="4"/>
         <v>883.24</v>
       </c>
+      <c r="Q5" s="9">
+        <f t="shared" si="5"/>
+        <v>963.38969999999995</v>
+      </c>
       <c r="R5" s="10">
-        <f t="shared" si="5"/>
-        <v>923.11810000000003</v>
-      </c>
-      <c r="S5" s="11">
         <f t="shared" si="6"/>
-        <v>903.17904999999996</v>
-      </c>
-      <c r="U5" s="3">
+        <v>923.2492666666667</v>
+      </c>
+      <c r="S5" s="15">
+        <f>(R5-C5)/C5</f>
+        <v>0.3967462430660616</v>
+      </c>
+      <c r="U5" s="8">
+        <v>1106.8852999999999</v>
+      </c>
+      <c r="V5" s="9">
+        <v>1119.7598</v>
+      </c>
+      <c r="W5" s="10">
+        <v>1157.2630999999999</v>
+      </c>
+      <c r="X5" s="17">
         <f t="shared" si="7"/>
-        <v>0.36638282904689856</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6">
+        <v>1127.9694</v>
+      </c>
+      <c r="Y5" s="15">
+        <f t="shared" si="8"/>
+        <v>0.70645900151285923</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="28">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
+      <c r="C6" s="28">
         <v>661</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="28">
         <v>50</v>
       </c>
-      <c r="E6" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="E6" s="29">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="30">
         <f>E6* 0.5</f>
         <v>500</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5">
+      <c r="H6" s="28">
+        <v>1</v>
+      </c>
+      <c r="I6" s="30">
         <f t="shared" si="1"/>
         <v>299</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="31">
         <f>E6*0.2</f>
         <v>200</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="33">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
+      <c r="M6" s="8">
+        <v>944.18290000000002</v>
+      </c>
       <c r="N6" s="9">
-        <v>944.18290000000002</v>
-      </c>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10">
         <v>999.06479999999999</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="O6" s="10">
+        <v>1036.1890000000001</v>
+      </c>
+      <c r="P6" s="8">
         <f t="shared" si="4"/>
         <v>944.18290000000002</v>
       </c>
+      <c r="Q6" s="9">
+        <f t="shared" si="5"/>
+        <v>1036.1890000000001</v>
+      </c>
       <c r="R6" s="10">
-        <f t="shared" si="5"/>
-        <v>999.06479999999999</v>
-      </c>
-      <c r="S6" s="11">
         <f t="shared" si="6"/>
-        <v>971.62384999999995</v>
-      </c>
-      <c r="U6" s="3">
+        <v>993.1455666666667</v>
+      </c>
+      <c r="S6" s="15">
+        <f>(R6-C6)/C6</f>
+        <v>0.50248951084215843</v>
+      </c>
+      <c r="U6" s="8">
+        <v>1194.597</v>
+      </c>
+      <c r="V6" s="9">
+        <v>1227.1706999999999</v>
+      </c>
+      <c r="W6" s="10">
+        <v>1274.0432000000001</v>
+      </c>
+      <c r="X6" s="17">
         <f t="shared" si="7"/>
-        <v>0.46993018154311639</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7">
+        <v>1231.9369666666666</v>
+      </c>
+      <c r="Y6" s="15">
+        <f t="shared" si="8"/>
+        <v>0.86374730206757433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="28">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
+      <c r="C7" s="28">
         <v>661</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="28">
         <v>50</v>
       </c>
-      <c r="E7" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="E7" s="29">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="30">
         <f>E7* 0.3</f>
         <v>300</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="5">
+      <c r="H7" s="28">
+        <v>1</v>
+      </c>
+      <c r="I7" s="30">
         <f>E7*0.3 -H7</f>
         <v>299</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="30">
         <f>E7*0.4</f>
         <v>400</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="5">
-        <f t="shared" ref="L7" si="8">F7+H7+I7+J7</f>
-        <v>1000</v>
-      </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="11"/>
+      <c r="L7" s="33">
+        <f t="shared" ref="L7" si="9">F7+H7+I7+J7</f>
+        <v>1000</v>
+      </c>
+      <c r="M7" s="8">
+        <v>747.00289999999995</v>
+      </c>
+      <c r="N7" s="9">
+        <v>751.8175</v>
+      </c>
+      <c r="O7" s="10">
+        <v>684.90629999999999</v>
+      </c>
+      <c r="P7" s="8">
+        <f t="shared" ref="P7:P8" si="10">MIN(M7:O7)</f>
+        <v>684.90629999999999</v>
+      </c>
       <c r="Q7" s="9">
-        <f t="shared" ref="Q7:Q8" si="9">MIN(N7:P7)</f>
-        <v>0</v>
+        <f t="shared" ref="Q7:Q8" si="11">MAX(M7:O7)</f>
+        <v>751.8175</v>
       </c>
       <c r="R7" s="10">
-        <f t="shared" ref="R7:R8" si="10">MAX(N7:P7)</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="11" t="e">
-        <f t="shared" ref="S7:S8" si="11">AVERAGE(N7:P7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U7" s="3" t="e">
+        <f t="shared" ref="R7:R8" si="12">AVERAGE(M7:O7)</f>
+        <v>727.90890000000002</v>
+      </c>
+      <c r="S7" s="15">
+        <f>(R7-C7)/C7</f>
+        <v>0.10122375189107416</v>
+      </c>
+      <c r="U7" s="8">
+        <v>997.68050000000005</v>
+      </c>
+      <c r="V7" s="9">
+        <v>953.90170000000001</v>
+      </c>
+      <c r="W7" s="10">
+        <v>944.14020000000005</v>
+      </c>
+      <c r="X7" s="17">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+        <v>965.24080000000004</v>
+      </c>
+      <c r="Y7" s="15">
+        <f t="shared" si="8"/>
+        <v>0.46027352496217855</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C8">
+      <c r="B8" s="28">
+        <v>7</v>
+      </c>
+      <c r="C8" s="28">
         <v>661</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="28">
         <v>50</v>
       </c>
-      <c r="E8" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="E8" s="29">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="30">
         <f>E8* 0.3</f>
         <v>300</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5">
+      <c r="H8" s="28">
+        <v>1</v>
+      </c>
+      <c r="I8" s="31">
         <f>E8*0.1 -H8</f>
         <v>99</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="31">
         <f>E8*0.6</f>
         <v>600</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="5">
-        <f t="shared" ref="L8" si="12">F8+H8+I8+J8</f>
-        <v>1000</v>
-      </c>
-      <c r="N8" s="15">
+      <c r="L8" s="33">
+        <f t="shared" ref="L8" si="13">F8+H8+I8+J8</f>
+        <v>1000</v>
+      </c>
+      <c r="M8" s="11">
         <v>877.87</v>
       </c>
-      <c r="P8" s="16">
+      <c r="N8" s="28">
         <v>873.77239999999995</v>
       </c>
-      <c r="Q8" s="15">
-        <f t="shared" si="9"/>
-        <v>873.77239999999995</v>
-      </c>
-      <c r="R8" s="17">
+      <c r="O8" s="12">
+        <v>787.71159999999998</v>
+      </c>
+      <c r="P8" s="11">
         <f t="shared" si="10"/>
+        <v>787.71159999999998</v>
+      </c>
+      <c r="Q8" s="13">
+        <f t="shared" si="11"/>
         <v>877.87</v>
       </c>
-      <c r="S8" s="16">
-        <f t="shared" si="11"/>
-        <v>875.82119999999998</v>
-      </c>
-      <c r="U8" s="3">
+      <c r="R8" s="12">
+        <f t="shared" si="12"/>
+        <v>846.45133333333331</v>
+      </c>
+      <c r="S8" s="15">
+        <f>(R8-C8)/C8</f>
+        <v>0.28056177508825009</v>
+      </c>
+      <c r="U8" s="11">
+        <v>1105.9027000000001</v>
+      </c>
+      <c r="V8" s="13">
+        <v>1184.6442999999999</v>
+      </c>
+      <c r="W8" s="12">
+        <v>1206.7911999999999</v>
+      </c>
+      <c r="X8" s="17">
         <f t="shared" si="7"/>
-        <v>0.32499425113464442</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
-      <c r="A17">
+        <v>1165.7794000000001</v>
+      </c>
+      <c r="Y8" s="15">
+        <f t="shared" si="8"/>
+        <v>0.76366021180030275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="1" customFormat="1">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>661</v>
+      </c>
+      <c r="D9" s="1">
+        <v>50</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="20">
+        <f>E9* 0.3</f>
+        <v>300</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="21">
+        <f>E9*0.1 -H9</f>
+        <v>99</v>
+      </c>
+      <c r="J9" s="21">
+        <f>E9*0.6</f>
+        <v>600</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="35">
+        <f t="shared" ref="L9" si="14">F9+H9+I9+J9</f>
+        <v>1000</v>
+      </c>
+      <c r="M9" s="23">
+        <v>709.46180000000004</v>
+      </c>
+      <c r="N9" s="24">
+        <v>719.9126</v>
+      </c>
+      <c r="O9" s="36">
+        <v>712.63170000000002</v>
+      </c>
+      <c r="P9" s="23">
+        <f t="shared" ref="P9" si="15">MIN(M9:O9)</f>
+        <v>709.46180000000004</v>
+      </c>
+      <c r="Q9" s="24">
+        <f t="shared" ref="Q9" si="16">MAX(M9:O9)</f>
+        <v>719.9126</v>
+      </c>
+      <c r="R9" s="25">
+        <f t="shared" ref="R9" si="17">AVERAGE(M9:O9)</f>
+        <v>714.00203333333332</v>
+      </c>
+      <c r="S9" s="26">
+        <f>(R9-C9)/C9</f>
+        <v>8.0184619263741777E-2</v>
+      </c>
+      <c r="U9" s="23">
+        <v>921.88639999999998</v>
+      </c>
+      <c r="V9" s="24">
+        <v>911.95010000000002</v>
+      </c>
+      <c r="W9" s="25">
+        <v>949.65449999999998</v>
+      </c>
+      <c r="X9" s="27">
+        <f t="shared" si="7"/>
+        <v>927.83033333333333</v>
+      </c>
+      <c r="Y9" s="40">
+        <f t="shared" si="8"/>
+        <v>0.40367675239536055</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="28">
+        <v>1</v>
+      </c>
+      <c r="C10" s="28">
+        <v>211</v>
+      </c>
+      <c r="D10" s="28">
+        <v>50</v>
+      </c>
+      <c r="E10" s="29">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="30">
+        <f>E10* 0.3</f>
+        <v>300</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="28">
+        <v>1</v>
+      </c>
+      <c r="I10" s="30">
+        <f>E10*0.3 -H10</f>
+        <v>299</v>
+      </c>
+      <c r="J10" s="30">
+        <f>E10*0.4</f>
+        <v>400</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="33">
+        <f>F10+H10+I10+J10</f>
+        <v>1000</v>
+      </c>
+      <c r="M10" s="37">
+        <v>223.50460000000001</v>
+      </c>
+      <c r="N10" s="13">
+        <v>220.1885</v>
+      </c>
+      <c r="O10" s="38">
+        <v>249.42150000000001</v>
+      </c>
+      <c r="P10" s="5">
+        <f>MIN(M10:O10)</f>
+        <v>220.1885</v>
+      </c>
+      <c r="Q10" s="6">
+        <f>MAX(M10:O10)</f>
+        <v>249.42150000000001</v>
+      </c>
+      <c r="R10" s="7">
+        <f>AVERAGE(M10:O10)</f>
+        <v>231.03819999999999</v>
+      </c>
+      <c r="S10" s="15">
+        <f>(R10-C10)/C10</f>
+        <v>9.4967772511848292E-2</v>
+      </c>
+      <c r="U10" s="5">
+        <v>301.16910000000001</v>
+      </c>
+      <c r="V10" s="6">
+        <v>287.59890000000001</v>
+      </c>
+      <c r="W10" s="10">
+        <v>285.68720000000002</v>
+      </c>
+      <c r="X10" s="17">
+        <f>AVERAGE(U10:W10)</f>
+        <v>291.48506666666668</v>
+      </c>
+      <c r="Y10" s="15">
+        <f t="shared" si="8"/>
+        <v>0.38144581358609803</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="28">
         <v>2</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C11" s="28">
+        <v>211</v>
+      </c>
+      <c r="D11" s="28">
+        <v>50</v>
+      </c>
+      <c r="E11" s="29">
+        <v>1000</v>
+      </c>
+      <c r="F11" s="30">
+        <f t="shared" ref="F11:F13" si="18">E11* 0.3</f>
+        <v>300</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="32">
+        <v>0</v>
+      </c>
+      <c r="I11" s="30">
+        <f t="shared" ref="I11:I14" si="19">E11*0.3 -H11</f>
+        <v>300</v>
+      </c>
+      <c r="J11" s="30">
+        <f t="shared" ref="J11:J13" si="20">E11*0.4</f>
+        <v>400</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="33">
+        <f t="shared" ref="L11:L17" si="21">F11+H11+I11+J11</f>
+        <v>1000</v>
+      </c>
+      <c r="M11" s="37">
+        <v>291.9579</v>
+      </c>
+      <c r="N11" s="13">
+        <v>231.13130000000001</v>
+      </c>
+      <c r="O11" s="38">
+        <v>239.88990000000001</v>
+      </c>
+      <c r="P11" s="8">
+        <f t="shared" ref="P11:P14" si="22">MIN(M11:O11)</f>
+        <v>231.13130000000001</v>
+      </c>
+      <c r="Q11" s="9">
+        <f t="shared" ref="Q11:Q14" si="23">MAX(M11:O11)</f>
+        <v>291.9579</v>
+      </c>
+      <c r="R11" s="10">
+        <f t="shared" ref="R11:R14" si="24">AVERAGE(M11:O11)</f>
+        <v>254.32636666666667</v>
+      </c>
+      <c r="S11" s="15">
+        <f>(R11-C11)/C11</f>
+        <v>0.20533823064770934</v>
+      </c>
+      <c r="U11" s="8">
+        <v>325.82299999999998</v>
+      </c>
+      <c r="V11" s="9">
+        <v>296.25439999999998</v>
+      </c>
+      <c r="W11" s="10">
+        <v>317.10860000000002</v>
+      </c>
+      <c r="X11" s="17">
+        <f t="shared" si="7"/>
+        <v>313.06199999999995</v>
+      </c>
+      <c r="Y11" s="15">
+        <f t="shared" si="8"/>
+        <v>0.48370616113744053</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="28">
+        <v>3</v>
+      </c>
+      <c r="C12" s="28">
+        <v>211</v>
+      </c>
+      <c r="D12" s="28">
+        <v>50</v>
+      </c>
+      <c r="E12" s="34">
+        <v>100</v>
+      </c>
+      <c r="F12" s="30">
+        <f t="shared" si="18"/>
+        <v>30</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="28">
+        <v>1</v>
+      </c>
+      <c r="I12" s="30">
+        <f t="shared" si="19"/>
+        <v>29</v>
+      </c>
+      <c r="J12" s="30">
+        <f t="shared" si="20"/>
+        <v>40</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="33">
+        <f t="shared" si="21"/>
+        <v>100</v>
+      </c>
+      <c r="M12" s="37">
+        <v>212.7115</v>
+      </c>
+      <c r="N12" s="13">
+        <v>212.7115</v>
+      </c>
+      <c r="O12" s="38">
+        <v>218.1139</v>
+      </c>
+      <c r="P12" s="8">
+        <f t="shared" si="22"/>
+        <v>212.7115</v>
+      </c>
+      <c r="Q12" s="9">
+        <f t="shared" si="23"/>
+        <v>218.1139</v>
+      </c>
+      <c r="R12" s="10">
+        <f t="shared" si="24"/>
+        <v>214.51230000000001</v>
+      </c>
+      <c r="S12" s="15">
+        <f>(R12-C12)/C12</f>
+        <v>1.6645971563981093E-2</v>
+      </c>
+      <c r="U12" s="8">
+        <v>273.69990000000001</v>
+      </c>
+      <c r="V12" s="9">
+        <v>279.90609999999998</v>
+      </c>
+      <c r="W12" s="10">
+        <v>265.76069999999999</v>
+      </c>
+      <c r="X12" s="17">
+        <f t="shared" si="7"/>
+        <v>273.12223333333333</v>
+      </c>
+      <c r="Y12" s="15">
+        <f t="shared" si="8"/>
+        <v>0.29441816745655602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="28">
+        <v>4</v>
+      </c>
+      <c r="C13" s="28">
+        <v>211</v>
+      </c>
+      <c r="D13" s="28">
+        <v>50</v>
+      </c>
+      <c r="E13" s="34">
+        <v>10000</v>
+      </c>
+      <c r="F13" s="30">
+        <f t="shared" si="18"/>
+        <v>3000</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="28">
+        <v>1</v>
+      </c>
+      <c r="I13" s="30">
+        <f t="shared" si="19"/>
+        <v>2999</v>
+      </c>
+      <c r="J13" s="30">
+        <f t="shared" si="20"/>
+        <v>4000</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="33">
+        <f t="shared" si="21"/>
+        <v>10000</v>
+      </c>
+      <c r="M13" s="37">
+        <v>246.2543</v>
+      </c>
+      <c r="N13" s="13">
+        <v>233.28550000000001</v>
+      </c>
+      <c r="O13" s="38">
+        <v>216.81960000000001</v>
+      </c>
+      <c r="P13" s="8">
+        <f t="shared" si="22"/>
+        <v>216.81960000000001</v>
+      </c>
+      <c r="Q13" s="9">
+        <f t="shared" si="23"/>
+        <v>246.2543</v>
+      </c>
+      <c r="R13" s="10">
+        <f t="shared" si="24"/>
+        <v>232.11980000000003</v>
+      </c>
+      <c r="S13" s="15">
+        <f>(R13-C13)/C13</f>
+        <v>0.10009383886255936</v>
+      </c>
+      <c r="U13" s="8">
+        <v>284.2629</v>
+      </c>
+      <c r="V13" s="9">
+        <v>283.22809999999998</v>
+      </c>
+      <c r="W13" s="10">
+        <v>287.4796</v>
+      </c>
+      <c r="X13" s="17">
+        <f t="shared" si="7"/>
+        <v>284.99020000000002</v>
+      </c>
+      <c r="Y13" s="15">
+        <f t="shared" si="8"/>
+        <v>0.35066445497630339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="28">
+        <v>5</v>
+      </c>
+      <c r="C14" s="28">
+        <v>211</v>
+      </c>
+      <c r="D14" s="28">
+        <v>50</v>
+      </c>
+      <c r="E14" s="29">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="30">
+        <f>E14* 0.5</f>
+        <v>500</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="28">
+        <v>1</v>
+      </c>
+      <c r="I14" s="30">
+        <f t="shared" si="19"/>
+        <v>299</v>
+      </c>
+      <c r="J14" s="31">
+        <f>E14*0.2</f>
+        <v>200</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="33">
+        <f t="shared" si="21"/>
+        <v>1000</v>
+      </c>
+      <c r="M14" s="37">
+        <v>221.32239999999999</v>
+      </c>
+      <c r="N14" s="13">
+        <v>243.15180000000001</v>
+      </c>
+      <c r="O14" s="38">
+        <v>220.1885</v>
+      </c>
+      <c r="P14" s="8">
+        <f t="shared" si="22"/>
+        <v>220.1885</v>
+      </c>
+      <c r="Q14" s="9">
+        <f t="shared" si="23"/>
+        <v>243.15180000000001</v>
+      </c>
+      <c r="R14" s="10">
+        <f t="shared" si="24"/>
+        <v>228.2209</v>
+      </c>
+      <c r="S14" s="15">
+        <f>(R14-C14)/C14</f>
+        <v>8.1615639810426535E-2</v>
+      </c>
+      <c r="U14" s="8">
+        <v>294.1551</v>
+      </c>
+      <c r="V14" s="9">
+        <v>280.93520000000001</v>
+      </c>
+      <c r="W14" s="10">
+        <v>315.44290000000001</v>
+      </c>
+      <c r="X14" s="17">
+        <f t="shared" si="7"/>
+        <v>296.84440000000001</v>
+      </c>
+      <c r="Y14" s="15">
+        <f t="shared" si="8"/>
+        <v>0.40684549763033179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="28">
+        <v>6</v>
+      </c>
+      <c r="C15" s="28">
+        <v>211</v>
+      </c>
+      <c r="D15" s="28">
+        <v>50</v>
+      </c>
+      <c r="E15" s="29">
+        <v>1000</v>
+      </c>
+      <c r="F15" s="30">
+        <f>E15* 0.3</f>
+        <v>300</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="28">
+        <v>1</v>
+      </c>
+      <c r="I15" s="30">
+        <f>E15*0.3 -H15</f>
+        <v>299</v>
+      </c>
+      <c r="J15" s="30">
+        <f>E15*0.4</f>
+        <v>400</v>
+      </c>
+      <c r="K15" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="33">
+        <f t="shared" si="21"/>
+        <v>1000</v>
+      </c>
+      <c r="M15" s="37"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="28">
+        <v>7</v>
+      </c>
+      <c r="C16" s="28">
+        <v>211</v>
+      </c>
+      <c r="D16" s="28">
+        <v>50</v>
+      </c>
+      <c r="E16" s="29">
+        <v>1000</v>
+      </c>
+      <c r="F16" s="30">
+        <f>E16* 0.3</f>
+        <v>300</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="28">
+        <v>1</v>
+      </c>
+      <c r="I16" s="31">
+        <f>E16*0.1 -H16</f>
+        <v>99</v>
+      </c>
+      <c r="J16" s="31">
+        <f>E16*0.6</f>
+        <v>600</v>
+      </c>
+      <c r="K16" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="33">
+        <f t="shared" si="21"/>
+        <v>1000</v>
+      </c>
+      <c r="M16" s="37"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+    </row>
+    <row r="17" spans="1:25" s="1" customFormat="1">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1">
+        <v>211</v>
+      </c>
+      <c r="D17" s="1">
+        <v>50</v>
+      </c>
+      <c r="E17" s="19">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="20">
+        <f>E17* 0.3</f>
+        <v>300</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="21">
+        <f>E17*0.1 -H17</f>
+        <v>99</v>
+      </c>
+      <c r="J17" s="21">
+        <f>E17*0.6</f>
+        <v>600</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="35">
+        <f t="shared" si="21"/>
+        <v>1000</v>
+      </c>
+      <c r="M17" s="39"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="39"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="28">
+        <v>1</v>
+      </c>
+      <c r="C18" s="28">
+        <v>805</v>
+      </c>
+      <c r="D18" s="28">
+        <v>50</v>
+      </c>
+      <c r="E18" s="29">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="30">
+        <f>E18* 0.3</f>
+        <v>300</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="28">
+        <v>1</v>
+      </c>
+      <c r="I18" s="30">
+        <f>E18*0.3 -H18</f>
+        <v>299</v>
+      </c>
+      <c r="J18" s="30">
+        <f>E18*0.4</f>
+        <v>400</v>
+      </c>
+      <c r="K18" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="33">
+        <f>F18+H18+I18+J18</f>
+        <v>1000</v>
+      </c>
+      <c r="M18" s="37">
+        <v>987.65309999999999</v>
+      </c>
+      <c r="N18" s="28"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="5">
+        <f>MIN(M18:O18)</f>
+        <v>987.65309999999999</v>
+      </c>
+      <c r="Q18" s="6">
+        <f>MAX(M18:O18)</f>
+        <v>987.65309999999999</v>
+      </c>
+      <c r="R18" s="7">
+        <f>AVERAGE(M18:O18)</f>
+        <v>987.65309999999999</v>
+      </c>
+      <c r="S18" s="15">
+        <f>(R18-C18)/C18</f>
+        <v>0.22689826086956522</v>
+      </c>
+      <c r="U18" s="5">
+        <v>1409.627</v>
+      </c>
+      <c r="V18" s="6"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="17">
+        <f>AVERAGE(U18:W18)</f>
+        <v>1409.627</v>
+      </c>
+      <c r="Y18" s="15">
+        <f t="shared" ref="Y18:Y22" si="25">(X18-C18)/C18</f>
+        <v>0.75108944099378872</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="28">
+        <v>2</v>
+      </c>
+      <c r="C19" s="28">
+        <v>805</v>
+      </c>
+      <c r="D19" s="28">
+        <v>50</v>
+      </c>
+      <c r="E19" s="29">
+        <v>1000</v>
+      </c>
+      <c r="F19" s="30">
+        <f t="shared" ref="F19:F21" si="26">E19* 0.3</f>
+        <v>300</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="32">
+        <v>0</v>
+      </c>
+      <c r="I19" s="30">
+        <f t="shared" ref="I19:I22" si="27">E19*0.3 -H19</f>
+        <v>300</v>
+      </c>
+      <c r="J19" s="30">
+        <f t="shared" ref="J19:J21" si="28">E19*0.4</f>
+        <v>400</v>
+      </c>
+      <c r="K19" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="33">
+        <f t="shared" ref="L19:L25" si="29">F19+H19+I19+J19</f>
+        <v>1000</v>
+      </c>
+      <c r="M19" s="37">
+        <v>1373.6658</v>
+      </c>
+      <c r="N19" s="28"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="8">
+        <f t="shared" ref="P19:P22" si="30">MIN(M19:O19)</f>
+        <v>1373.6658</v>
+      </c>
+      <c r="Q19" s="9">
+        <f t="shared" ref="Q19:Q22" si="31">MAX(M19:O19)</f>
+        <v>1373.6658</v>
+      </c>
+      <c r="R19" s="10">
+        <f t="shared" ref="R19:R22" si="32">AVERAGE(M19:O19)</f>
+        <v>1373.6658</v>
+      </c>
+      <c r="S19" s="15">
+        <f>(R19-C19)/C19</f>
+        <v>0.70641714285714285</v>
+      </c>
+      <c r="U19" s="8">
+        <v>1574.3920000000001</v>
+      </c>
+      <c r="V19" s="9"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="17">
+        <f t="shared" ref="X19:X22" si="33">AVERAGE(U19:W19)</f>
+        <v>1574.3920000000001</v>
+      </c>
+      <c r="Y19" s="15">
+        <f t="shared" si="25"/>
+        <v>0.95576645962732931</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="28">
+        <v>3</v>
+      </c>
+      <c r="C20" s="28">
+        <v>805</v>
+      </c>
+      <c r="D20" s="28">
+        <v>50</v>
+      </c>
+      <c r="E20" s="34">
+        <v>100</v>
+      </c>
+      <c r="F20" s="30">
+        <f t="shared" si="26"/>
+        <v>30</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="28">
+        <v>1</v>
+      </c>
+      <c r="I20" s="30">
+        <f t="shared" si="27"/>
+        <v>29</v>
+      </c>
+      <c r="J20" s="30">
+        <f t="shared" si="28"/>
+        <v>40</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="33">
+        <f t="shared" si="29"/>
+        <v>100</v>
+      </c>
+      <c r="M20" s="37">
+        <v>978.17759999999998</v>
+      </c>
+      <c r="N20" s="28"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="8">
+        <f t="shared" si="30"/>
+        <v>978.17759999999998</v>
+      </c>
+      <c r="Q20" s="9">
+        <f t="shared" si="31"/>
+        <v>978.17759999999998</v>
+      </c>
+      <c r="R20" s="10">
+        <f t="shared" si="32"/>
+        <v>978.17759999999998</v>
+      </c>
+      <c r="S20" s="15">
+        <f>(R20-C20)/C20</f>
+        <v>0.21512745341614906</v>
+      </c>
+      <c r="U20" s="8">
+        <v>1313.2080000000001</v>
+      </c>
+      <c r="V20" s="9"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="17">
+        <f t="shared" si="33"/>
+        <v>1313.2080000000001</v>
+      </c>
+      <c r="Y20" s="15">
+        <f t="shared" si="25"/>
+        <v>0.63131428571428583</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="28">
+        <v>4</v>
+      </c>
+      <c r="C21" s="28">
+        <v>805</v>
+      </c>
+      <c r="D21" s="28">
+        <v>50</v>
+      </c>
+      <c r="E21" s="34">
+        <v>10000</v>
+      </c>
+      <c r="F21" s="30">
+        <f t="shared" si="26"/>
+        <v>3000</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="28">
+        <v>1</v>
+      </c>
+      <c r="I21" s="30">
+        <f t="shared" si="27"/>
+        <v>2999</v>
+      </c>
+      <c r="J21" s="30">
+        <f t="shared" si="28"/>
+        <v>4000</v>
+      </c>
+      <c r="K21" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" s="33">
+        <f t="shared" si="29"/>
+        <v>10000</v>
+      </c>
+      <c r="M21" s="37">
+        <v>1019.2563</v>
+      </c>
+      <c r="N21" s="28"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="8">
+        <f t="shared" si="30"/>
+        <v>1019.2563</v>
+      </c>
+      <c r="Q21" s="9">
+        <f t="shared" si="31"/>
+        <v>1019.2563</v>
+      </c>
+      <c r="R21" s="10">
+        <f t="shared" si="32"/>
+        <v>1019.2563</v>
+      </c>
+      <c r="S21" s="15">
+        <f>(R21-C21)/C21</f>
+        <v>0.26615689440993789</v>
+      </c>
+      <c r="U21" s="8">
+        <v>1242.567</v>
+      </c>
+      <c r="V21" s="9"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="17">
+        <f t="shared" si="33"/>
+        <v>1242.567</v>
+      </c>
+      <c r="Y21" s="15">
+        <f t="shared" si="25"/>
+        <v>0.54356149068322979</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="28">
+        <v>5</v>
+      </c>
+      <c r="C22" s="28">
+        <v>805</v>
+      </c>
+      <c r="D22" s="28">
+        <v>50</v>
+      </c>
+      <c r="E22" s="29">
+        <v>1000</v>
+      </c>
+      <c r="F22" s="30">
+        <f>E22* 0.5</f>
+        <v>500</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="28">
+        <v>1</v>
+      </c>
+      <c r="I22" s="30">
+        <f t="shared" si="27"/>
+        <v>299</v>
+      </c>
+      <c r="J22" s="31">
+        <f>E22*0.2</f>
+        <v>200</v>
+      </c>
+      <c r="K22" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="33">
+        <f t="shared" si="29"/>
+        <v>1000</v>
+      </c>
+      <c r="M22" s="37">
+        <v>1115.3578</v>
+      </c>
+      <c r="N22" s="28"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="8">
+        <f t="shared" si="30"/>
+        <v>1115.3578</v>
+      </c>
+      <c r="Q22" s="9">
+        <f t="shared" si="31"/>
+        <v>1115.3578</v>
+      </c>
+      <c r="R22" s="10">
+        <f t="shared" si="32"/>
+        <v>1115.3578</v>
+      </c>
+      <c r="S22" s="15">
+        <f>(R22-C22)/C22</f>
+        <v>0.38553763975155281</v>
+      </c>
+      <c r="U22" s="8">
+        <v>1393.1</v>
+      </c>
+      <c r="V22" s="9"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="17">
+        <f t="shared" si="33"/>
+        <v>1393.1</v>
+      </c>
+      <c r="Y22" s="15">
+        <f t="shared" si="25"/>
+        <v>0.73055900621117997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="28">
+        <v>6</v>
+      </c>
+      <c r="C23" s="28">
+        <v>805</v>
+      </c>
+      <c r="D23" s="28">
+        <v>50</v>
+      </c>
+      <c r="E23" s="29">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="30">
+        <f>E23* 0.3</f>
+        <v>300</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="28">
+        <v>1</v>
+      </c>
+      <c r="I23" s="30">
+        <f>E23*0.3 -H23</f>
+        <v>299</v>
+      </c>
+      <c r="J23" s="30">
+        <f>E23*0.4</f>
+        <v>400</v>
+      </c>
+      <c r="K23" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" s="33">
+        <f t="shared" si="29"/>
+        <v>1000</v>
+      </c>
+      <c r="M23" s="37"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="38"/>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="28">
+        <v>7</v>
+      </c>
+      <c r="C24" s="28">
+        <v>805</v>
+      </c>
+      <c r="D24" s="28">
+        <v>50</v>
+      </c>
+      <c r="E24" s="29">
+        <v>1000</v>
+      </c>
+      <c r="F24" s="30">
+        <f>E24* 0.3</f>
+        <v>300</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="28">
+        <v>1</v>
+      </c>
+      <c r="I24" s="31">
+        <f>E24*0.1 -H24</f>
+        <v>99</v>
+      </c>
+      <c r="J24" s="31">
+        <f>E24*0.6</f>
+        <v>600</v>
+      </c>
+      <c r="K24" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="33">
+        <f t="shared" si="29"/>
+        <v>1000</v>
+      </c>
+      <c r="M24" s="37"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+    </row>
+    <row r="25" spans="1:25" s="1" customFormat="1">
+      <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="1">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1">
+        <v>805</v>
+      </c>
+      <c r="D25" s="1">
+        <v>50</v>
+      </c>
+      <c r="E25" s="19">
+        <v>1000</v>
+      </c>
+      <c r="F25" s="20">
+        <f>E25* 0.3</f>
+        <v>300</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="21">
+        <f>E25*0.1 -H25</f>
+        <v>99</v>
+      </c>
+      <c r="J25" s="21">
+        <f>E25*0.6</f>
+        <v>600</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" s="35">
+        <f t="shared" si="29"/>
+        <v>1000</v>
+      </c>
+      <c r="M25" s="39"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="39"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="28">
+        <v>1</v>
+      </c>
+      <c r="C26" s="28">
+        <v>1764</v>
+      </c>
+      <c r="D26" s="28">
+        <v>50</v>
+      </c>
+      <c r="E26" s="29">
+        <v>1000</v>
+      </c>
+      <c r="F26" s="30">
+        <f>E26* 0.3</f>
+        <v>300</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="28">
+        <v>1</v>
+      </c>
+      <c r="I26" s="30">
+        <f>E26*0.3 -H26</f>
+        <v>299</v>
+      </c>
+      <c r="J26" s="30">
+        <f>E26*0.4</f>
+        <v>400</v>
+      </c>
+      <c r="K26" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="33">
+        <f>F26+H26+I26+J26</f>
+        <v>1000</v>
+      </c>
+      <c r="M26" s="37"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="28">
+        <v>2</v>
+      </c>
+      <c r="C27" s="28">
+        <v>1764</v>
+      </c>
+      <c r="D27" s="28">
+        <v>50</v>
+      </c>
+      <c r="E27" s="29">
+        <v>1000</v>
+      </c>
+      <c r="F27" s="30">
+        <f t="shared" ref="F27:F29" si="34">E27* 0.3</f>
+        <v>300</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="32">
+        <v>0</v>
+      </c>
+      <c r="I27" s="30">
+        <f t="shared" ref="I27:I30" si="35">E27*0.3 -H27</f>
+        <v>300</v>
+      </c>
+      <c r="J27" s="30">
+        <f t="shared" ref="J27:J29" si="36">E27*0.4</f>
+        <v>400</v>
+      </c>
+      <c r="K27" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="33">
+        <f t="shared" ref="L27:L33" si="37">F27+H27+I27+J27</f>
+        <v>1000</v>
+      </c>
+      <c r="M27" s="37"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="28">
+        <v>3</v>
+      </c>
+      <c r="C28" s="28">
+        <v>1764</v>
+      </c>
+      <c r="D28" s="28">
+        <v>50</v>
+      </c>
+      <c r="E28" s="34">
+        <v>100</v>
+      </c>
+      <c r="F28" s="30">
+        <f t="shared" si="34"/>
+        <v>30</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="28">
+        <v>1</v>
+      </c>
+      <c r="I28" s="30">
+        <f t="shared" si="35"/>
+        <v>29</v>
+      </c>
+      <c r="J28" s="30">
+        <f t="shared" si="36"/>
+        <v>40</v>
+      </c>
+      <c r="K28" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" s="33">
+        <f t="shared" si="37"/>
+        <v>100</v>
+      </c>
+      <c r="M28" s="37"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="38"/>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="28">
+        <v>4</v>
+      </c>
+      <c r="C29" s="28">
+        <v>1764</v>
+      </c>
+      <c r="D29" s="28">
+        <v>50</v>
+      </c>
+      <c r="E29" s="34">
+        <v>10000</v>
+      </c>
+      <c r="F29" s="30">
+        <f t="shared" si="34"/>
+        <v>3000</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="28">
+        <v>1</v>
+      </c>
+      <c r="I29" s="30">
+        <f t="shared" si="35"/>
+        <v>2999</v>
+      </c>
+      <c r="J29" s="30">
+        <f t="shared" si="36"/>
+        <v>4000</v>
+      </c>
+      <c r="K29" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29" s="33">
+        <f t="shared" si="37"/>
+        <v>10000</v>
+      </c>
+      <c r="M29" s="37"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="38"/>
+      <c r="Y29" s="38"/>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="28">
+        <v>5</v>
+      </c>
+      <c r="C30" s="28">
+        <v>1764</v>
+      </c>
+      <c r="D30" s="28">
+        <v>50</v>
+      </c>
+      <c r="E30" s="29">
+        <v>1000</v>
+      </c>
+      <c r="F30" s="30">
+        <f>E30* 0.5</f>
+        <v>500</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="28">
+        <v>1</v>
+      </c>
+      <c r="I30" s="30">
+        <f t="shared" si="35"/>
+        <v>299</v>
+      </c>
+      <c r="J30" s="31">
+        <f>E30*0.2</f>
+        <v>200</v>
+      </c>
+      <c r="K30" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" s="33">
+        <f t="shared" si="37"/>
+        <v>1000</v>
+      </c>
+      <c r="M30" s="37"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="38"/>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="A31" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="28">
+        <v>6</v>
+      </c>
+      <c r="C31" s="28">
+        <v>1764</v>
+      </c>
+      <c r="D31" s="28">
+        <v>50</v>
+      </c>
+      <c r="E31" s="29">
+        <v>1000</v>
+      </c>
+      <c r="F31" s="30">
+        <f>E31* 0.3</f>
+        <v>300</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="28">
+        <v>1</v>
+      </c>
+      <c r="I31" s="30">
+        <f>E31*0.3 -H31</f>
+        <v>299</v>
+      </c>
+      <c r="J31" s="30">
+        <f>E31*0.4</f>
+        <v>400</v>
+      </c>
+      <c r="K31" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" s="33">
+        <f t="shared" si="37"/>
+        <v>1000</v>
+      </c>
+      <c r="M31" s="37"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="38"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="38"/>
+      <c r="X31" s="38"/>
+      <c r="Y31" s="38"/>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="A32" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="28">
+        <v>7</v>
+      </c>
+      <c r="C32" s="28">
+        <v>1764</v>
+      </c>
+      <c r="D32" s="28">
+        <v>50</v>
+      </c>
+      <c r="E32" s="29">
+        <v>1000</v>
+      </c>
+      <c r="F32" s="30">
+        <f>E32* 0.3</f>
+        <v>300</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="28">
+        <v>1</v>
+      </c>
+      <c r="I32" s="31">
+        <f>E32*0.1 -H32</f>
+        <v>99</v>
+      </c>
+      <c r="J32" s="31">
+        <f>E32*0.6</f>
+        <v>600</v>
+      </c>
+      <c r="K32" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="L32" s="33">
+        <f t="shared" si="37"/>
+        <v>1000</v>
+      </c>
+      <c r="M32" s="37"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="38"/>
+      <c r="Y32" s="38"/>
+    </row>
+    <row r="33" spans="1:25" s="1" customFormat="1">
+      <c r="A33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="1">
+        <v>8</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1764</v>
+      </c>
+      <c r="D33" s="1">
+        <v>50</v>
+      </c>
+      <c r="E33" s="19">
+        <v>1000</v>
+      </c>
+      <c r="F33" s="20">
+        <f>E33* 0.3</f>
+        <v>300</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+      <c r="I33" s="21">
+        <f>E33*0.1 -H33</f>
+        <v>99</v>
+      </c>
+      <c r="J33" s="21">
+        <f>E33*0.6</f>
+        <v>600</v>
+      </c>
+      <c r="K33" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" s="35">
+        <f t="shared" si="37"/>
+        <v>1000</v>
+      </c>
+      <c r="M33" s="39"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="39"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="U33" s="39"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="36"/>
+    </row>
+    <row r="36" spans="1:25">
+      <c r="A36" t="s">
         <v>10</v>
       </c>
-      <c r="C17">
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
         <v>661</v>
       </c>
-      <c r="D17">
+      <c r="D36">
+        <v>50</v>
+      </c>
+      <c r="E36" s="4">
         <v>10000</v>
       </c>
-      <c r="E17">
+      <c r="F36" s="4">
+        <f t="shared" ref="F36:F39" si="38">E36/2</f>
+        <v>5000</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4">
+        <f t="shared" ref="I36:I39" si="39">E36*0.4 -H36</f>
+        <v>4000</v>
+      </c>
+      <c r="J36" s="4">
+        <f t="shared" ref="J36:J39" si="40">E36*0.1</f>
+        <v>1000</v>
+      </c>
+      <c r="K36" t="s">
+        <v>15</v>
+      </c>
+      <c r="L36" s="4">
+        <f t="shared" ref="L36:L39" si="41">F36+H36+I36+J36</f>
         <v>10000</v>
       </c>
-      <c r="F17">
-        <f t="shared" ref="F17:F20" si="13">E17/2</f>
+      <c r="S36" s="3"/>
+    </row>
+    <row r="37" spans="1:25">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>211</v>
+      </c>
+      <c r="D37">
+        <v>50</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="38"/>
+        <v>500</v>
+      </c>
+      <c r="G37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4">
+        <f t="shared" si="39"/>
+        <v>400</v>
+      </c>
+      <c r="J37" s="4">
+        <f t="shared" si="40"/>
+        <v>100</v>
+      </c>
+      <c r="K37" t="s">
+        <v>15</v>
+      </c>
+      <c r="L37" s="4">
+        <f t="shared" si="41"/>
+        <v>1000</v>
+      </c>
+      <c r="S37" s="3"/>
+    </row>
+    <row r="38" spans="1:25">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>805</v>
+      </c>
+      <c r="D38">
+        <v>50</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F38" s="4">
+        <f t="shared" si="38"/>
+        <v>500</v>
+      </c>
+      <c r="G38" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" s="4">
+        <f t="shared" si="39"/>
+        <v>399</v>
+      </c>
+      <c r="J38" s="4">
+        <f t="shared" si="40"/>
+        <v>100</v>
+      </c>
+      <c r="K38" t="s">
+        <v>15</v>
+      </c>
+      <c r="L38" s="4">
+        <f t="shared" si="41"/>
+        <v>1000</v>
+      </c>
+      <c r="S38" s="3"/>
+    </row>
+    <row r="39" spans="1:25">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>1764</v>
+      </c>
+      <c r="D39">
+        <v>50</v>
+      </c>
+      <c r="E39" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F39" s="4">
+        <f t="shared" si="38"/>
         <v>5000</v>
       </c>
-      <c r="G17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17">
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39">
         <v>0</v>
       </c>
-      <c r="I17">
-        <f t="shared" ref="I17:I20" si="14">E17*0.4 -H17</f>
+      <c r="I39" s="4">
+        <f t="shared" si="39"/>
         <v>4000</v>
       </c>
-      <c r="J17">
-        <f t="shared" ref="J17:J20" si="15">E17*0.1</f>
-        <v>1000</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="J39" s="4">
+        <f t="shared" si="40"/>
+        <v>1000</v>
+      </c>
+      <c r="K39" t="s">
         <v>15</v>
       </c>
-      <c r="L17">
-        <f t="shared" ref="L17:L20" si="16">F17+H17+I17+J17</f>
+      <c r="L39" s="4">
+        <f t="shared" si="41"/>
         <v>10000</v>
       </c>
-      <c r="U17" s="3">
-        <f>(Q17-C17)/C17</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18">
-        <v>211</v>
-      </c>
-      <c r="D18">
-        <v>10000</v>
-      </c>
-      <c r="E18">
-        <v>1000</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="13"/>
-        <v>500</v>
-      </c>
-      <c r="G18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="14"/>
-        <v>400</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="15"/>
-        <v>100</v>
-      </c>
-      <c r="K18" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="16"/>
-        <v>1000</v>
-      </c>
-      <c r="U18" s="3">
-        <f>(Q18-C18)/C18</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19">
-        <v>805</v>
-      </c>
-      <c r="D19">
-        <v>10000</v>
-      </c>
-      <c r="E19">
-        <v>1000</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="13"/>
-        <v>500</v>
-      </c>
-      <c r="G19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="14"/>
-        <v>399</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="15"/>
-        <v>100</v>
-      </c>
-      <c r="K19" t="s">
-        <v>15</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="16"/>
-        <v>1000</v>
-      </c>
-      <c r="U19" s="3">
-        <f t="shared" ref="U19:U20" si="17">(Q19-C19)/C19</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20">
-        <v>1764</v>
-      </c>
-      <c r="D20">
-        <v>10000</v>
-      </c>
-      <c r="E20">
-        <v>10000</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="13"/>
-        <v>5000</v>
-      </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="14"/>
-        <v>4000</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="15"/>
-        <v>1000</v>
-      </c>
-      <c r="K20" t="s">
-        <v>15</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="16"/>
-        <v>10000</v>
-      </c>
-      <c r="U20" s="3">
-        <f t="shared" si="17"/>
-        <v>-1</v>
-      </c>
+      <c r="S39" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
